--- a/Documentacao/Sprint_01/doc/Registro das Partes Interessadas.xlsx
+++ b/Documentacao/Sprint_01/doc/Registro das Partes Interessadas.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20364"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51668E93-1491-4BBD-AE72-DB3C165665D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DFFB3F-F177-431E-9CDC-EE255CB81836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholders - identificação" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
   <si>
     <t>Registro de Partes Interessadas</t>
   </si>
@@ -93,9 +93,6 @@
     <t>iHelpU</t>
   </si>
   <si>
-    <t xml:space="preserve">Matheus Santos, Rafael Botazini, Raíssa Vilela, Vitor Augusto  </t>
-  </si>
-  <si>
     <t>Pedro Alves de Oliveira</t>
   </si>
   <si>
@@ -118,6 +115,102 @@
   </si>
   <si>
     <t>Sem observações</t>
+  </si>
+  <si>
+    <t>Mathues Santos Rosa Carneiro</t>
+  </si>
+  <si>
+    <t>Raissa Carolina Vilella</t>
+  </si>
+  <si>
+    <t>Rafael Soares Botazini</t>
+  </si>
+  <si>
+    <t>Vitor Augusto Alves de Jesus</t>
+  </si>
+  <si>
+    <t>Desenvolvedor</t>
+  </si>
+  <si>
+    <t>Scrum Master</t>
+  </si>
+  <si>
+    <t>Desenvolver projeto e documentação</t>
+  </si>
+  <si>
+    <t>Desenvolver projeto e documentação e organização das tarefas</t>
+  </si>
+  <si>
+    <t>mcarneiro@sga.pucminas.b</t>
+  </si>
+  <si>
+    <t>rcvsilva@sga.pucminas.br</t>
+  </si>
+  <si>
+    <t>vaajesus@sga.pucminas.br</t>
+  </si>
+  <si>
+    <t>rafael.botazini@sga.pucminas.br</t>
+  </si>
+  <si>
+    <t>(31) 99405-4007</t>
+  </si>
+  <si>
+    <t>Adquirir novos conhecimentos relacionado ao desenvolvimento de arquitetura de software e  desenvolvimento de aplicações distribuídas. Além de aprender um pouco sobre desenvolvimento mobile.</t>
+  </si>
+  <si>
+    <t>Minha expectativa é entregar uma aplicação que utilize todos os conceitos aprendidos e que entenda melhor na prática os conceitos do sistema distribuído </t>
+  </si>
+  <si>
+    <t>Matheus Santos Rosa Carneiro</t>
+  </si>
+  <si>
+    <t>Aprimorar os conhecimentos adquiridos através da discicplina de Desenvolvimento de Aplicações Móveis e Distribuídas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplicar os conhecimentos através da prática de Gerência de Projetos </t>
+  </si>
+  <si>
+    <t>(31) 994213902</t>
+  </si>
+  <si>
+    <t>Estudante Universitário</t>
+  </si>
+  <si>
+    <t>Usuário</t>
+  </si>
+  <si>
+    <t>Administrador do Sistema</t>
+  </si>
+  <si>
+    <t>Usuário administrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente </t>
+  </si>
+  <si>
+    <t>(31) 971831176</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Deseja um software capaz de verificar os dados das salas criadas através de um sistema mobile</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>(31) 9267-7766</t>
+  </si>
+  <si>
+    <t>Desenvolvedor e Scrum Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitor Augusto  </t>
+  </si>
+  <si>
+    <t>Pretende receber um software utilizável para conversar com outros estudantes e tirar suas dúvidas</t>
   </si>
 </sst>
 </file>
@@ -240,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -271,6 +364,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -292,17 +391,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -349,8 +443,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2968625" y="0"/>
-          <a:ext cx="6235065" cy="956945"/>
+          <a:off x="2935605" y="0"/>
+          <a:ext cx="6337935" cy="956945"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="3949628" cy="957541"/>
         </a:xfrm>
@@ -455,7 +549,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" xmlns:cx3="http://schemas.microsoft.com/office/drawing/2016/5/9/chartex" xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" xmlns:cx5="http://schemas.microsoft.com/office/drawing/2016/5/11/chartex" xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" xmlns:cx7="http://schemas.microsoft.com/office/drawing/2016/5/13/chartex" xmlns:cx8="http://schemas.microsoft.com/office/drawing/2016/5/14/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" xmlns:am3d="http://schemas.microsoft.com/office/drawing/2017/model3d" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns="" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas"/>
+              <ma14:wrappingTextBoxFlag xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns="" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:am3d="http://schemas.microsoft.com/office/drawing/2017/model3d" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx8="http://schemas.microsoft.com/office/drawing/2016/5/14/chartex" xmlns:cx7="http://schemas.microsoft.com/office/drawing/2016/5/13/chartex" xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" xmlns:cx5="http://schemas.microsoft.com/office/drawing/2016/5/11/chartex" xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" xmlns:cx3="http://schemas.microsoft.com/office/drawing/2016/5/9/chartex" xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -546,7 +640,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-              <a14:hiddenEffects xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" xmlns:cx3="http://schemas.microsoft.com/office/drawing/2016/5/9/chartex" xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" xmlns:cx5="http://schemas.microsoft.com/office/drawing/2016/5/11/chartex" xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" xmlns:cx7="http://schemas.microsoft.com/office/drawing/2016/5/13/chartex" xmlns:cx8="http://schemas.microsoft.com/office/drawing/2016/5/14/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" xmlns:am3d="http://schemas.microsoft.com/office/drawing/2017/model3d" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns="" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+              <a14:hiddenEffects xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns="" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:am3d="http://schemas.microsoft.com/office/drawing/2017/model3d" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx8="http://schemas.microsoft.com/office/drawing/2016/5/14/chartex" xmlns:cx7="http://schemas.microsoft.com/office/drawing/2016/5/13/chartex" xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" xmlns:cx5="http://schemas.microsoft.com/office/drawing/2016/5/11/chartex" xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" xmlns:cx3="http://schemas.microsoft.com/office/drawing/2016/5/9/chartex" xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas">
                 <a:effectLst>
                   <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                     <a:schemeClr val="bg2">
@@ -595,7 +689,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-              <a14:hiddenEffects xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" xmlns:cx3="http://schemas.microsoft.com/office/drawing/2016/5/9/chartex" xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" xmlns:cx5="http://schemas.microsoft.com/office/drawing/2016/5/11/chartex" xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" xmlns:cx7="http://schemas.microsoft.com/office/drawing/2016/5/13/chartex" xmlns:cx8="http://schemas.microsoft.com/office/drawing/2016/5/14/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" xmlns:am3d="http://schemas.microsoft.com/office/drawing/2017/model3d" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns="" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+              <a14:hiddenEffects xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns="" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:am3d="http://schemas.microsoft.com/office/drawing/2017/model3d" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx8="http://schemas.microsoft.com/office/drawing/2016/5/14/chartex" xmlns:cx7="http://schemas.microsoft.com/office/drawing/2016/5/13/chartex" xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" xmlns:cx5="http://schemas.microsoft.com/office/drawing/2016/5/11/chartex" xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" xmlns:cx3="http://schemas.microsoft.com/office/drawing/2016/5/9/chartex" xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas">
                 <a:effectLst>
                   <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                     <a:schemeClr val="bg2">
@@ -642,8 +736,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4060825" y="0"/>
-          <a:ext cx="4161790" cy="956945"/>
+          <a:off x="4017645" y="0"/>
+          <a:ext cx="4076700" cy="956945"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="3949628" cy="957541"/>
         </a:xfrm>
@@ -748,7 +842,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" xmlns:cx3="http://schemas.microsoft.com/office/drawing/2016/5/9/chartex" xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" xmlns:cx5="http://schemas.microsoft.com/office/drawing/2016/5/11/chartex" xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" xmlns:cx7="http://schemas.microsoft.com/office/drawing/2016/5/13/chartex" xmlns:cx8="http://schemas.microsoft.com/office/drawing/2016/5/14/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" xmlns:am3d="http://schemas.microsoft.com/office/drawing/2017/model3d" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns="" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas"/>
+              <ma14:wrappingTextBoxFlag xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns="" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:am3d="http://schemas.microsoft.com/office/drawing/2017/model3d" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx8="http://schemas.microsoft.com/office/drawing/2016/5/14/chartex" xmlns:cx7="http://schemas.microsoft.com/office/drawing/2016/5/13/chartex" xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" xmlns:cx5="http://schemas.microsoft.com/office/drawing/2016/5/11/chartex" xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" xmlns:cx3="http://schemas.microsoft.com/office/drawing/2016/5/9/chartex" xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -839,7 +933,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-              <a14:hiddenEffects xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" xmlns:cx3="http://schemas.microsoft.com/office/drawing/2016/5/9/chartex" xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" xmlns:cx5="http://schemas.microsoft.com/office/drawing/2016/5/11/chartex" xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" xmlns:cx7="http://schemas.microsoft.com/office/drawing/2016/5/13/chartex" xmlns:cx8="http://schemas.microsoft.com/office/drawing/2016/5/14/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" xmlns:am3d="http://schemas.microsoft.com/office/drawing/2017/model3d" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns="" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+              <a14:hiddenEffects xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns="" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:am3d="http://schemas.microsoft.com/office/drawing/2017/model3d" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx8="http://schemas.microsoft.com/office/drawing/2016/5/14/chartex" xmlns:cx7="http://schemas.microsoft.com/office/drawing/2016/5/13/chartex" xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" xmlns:cx5="http://schemas.microsoft.com/office/drawing/2016/5/11/chartex" xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" xmlns:cx3="http://schemas.microsoft.com/office/drawing/2016/5/9/chartex" xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas">
                 <a:effectLst>
                   <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                     <a:schemeClr val="bg2">
@@ -888,7 +982,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-              <a14:hiddenEffects xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" xmlns:cx3="http://schemas.microsoft.com/office/drawing/2016/5/9/chartex" xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" xmlns:cx5="http://schemas.microsoft.com/office/drawing/2016/5/11/chartex" xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" xmlns:cx7="http://schemas.microsoft.com/office/drawing/2016/5/13/chartex" xmlns:cx8="http://schemas.microsoft.com/office/drawing/2016/5/14/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" xmlns:am3d="http://schemas.microsoft.com/office/drawing/2017/model3d" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns="" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+              <a14:hiddenEffects xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns="" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:am3d="http://schemas.microsoft.com/office/drawing/2017/model3d" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx8="http://schemas.microsoft.com/office/drawing/2016/5/14/chartex" xmlns:cx7="http://schemas.microsoft.com/office/drawing/2016/5/13/chartex" xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" xmlns:cx5="http://schemas.microsoft.com/office/drawing/2016/5/11/chartex" xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" xmlns:cx3="http://schemas.microsoft.com/office/drawing/2016/5/9/chartex" xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas">
                 <a:effectLst>
                   <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                     <a:schemeClr val="bg2">
@@ -1228,35 +1322,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="2" max="2" width="52.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.453125" customWidth="1"/>
-    <col min="4" max="4" width="26.7265625" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="C2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1264,16 +1358,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1284,26 +1378,26 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>25</v>
+      <c r="B6" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1320,38 +1414,140 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="E10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>32</v>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1368,67 +1564,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.26953125" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="31.21875" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
-    <col min="5" max="5" width="23.453125" customWidth="1"/>
-    <col min="6" max="6" width="30.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+    <row r="1" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="20" t="str">
+      <c r="B5" s="12" t="str">
         <f>'Stakeholders - identificação'!B5</f>
         <v>iHelpU</v>
       </c>
@@ -1437,30 +1633,30 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="12" t="str">
         <f>'Stakeholders - identificação'!B6</f>
-        <v xml:space="preserve">Matheus Santos, Rafael Botazini, Raíssa Vilela, Vitor Augusto  </v>
+        <v xml:space="preserve">Vitor Augusto  </v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1483,7 +1679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f>'Stakeholders - identificação'!A9</f>
         <v>Pedro Alves de Oliveira</v>
@@ -1501,13 +1697,13 @@
         <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="str">
         <f>'Stakeholders - identificação'!A10</f>
         <v>Hugo de Paula</v>
@@ -1525,12 +1721,130 @@
         <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>32</v>
+      </c>
       <c r="I11" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Documentacao/Sprint_01/doc/Registro das Partes Interessadas.xlsx
+++ b/Documentacao/Sprint_01/doc/Registro das Partes Interessadas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DFFB3F-F177-431E-9CDC-EE255CB81836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B341A52-226B-478E-AC3B-06A91980CE75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
